--- a/dlwp/dwlp.3.4.4.xlsx
+++ b/dlwp/dwlp.3.4.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roy/src/cousera/dlwp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA45AC-6C4E-F448-9886-D06F34B77A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A42E19-D198-FB40-99B3-91D7BEEF5387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{71DE74E1-1954-614F-91C4-3D5E6779D6FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
   <si>
     <t>layers</t>
   </si>
@@ -589,6 +589,67 @@
         <a:xfrm>
           <a:off x="0" y="5689600"/>
           <a:ext cx="2794000" cy="2012259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>108312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE5FAF2-CA79-A841-B577-503BBD611355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3479800" y="5689600"/>
+          <a:ext cx="2971800" cy="2140312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -910,7 +971,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1131,8 +1192,20 @@
       <c r="D27" t="s">
         <v>3</v>
       </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1144,6 +1217,18 @@
       </c>
       <c r="D28" t="s">
         <v>6</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>64</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
